--- a/custom/test.xlsx
+++ b/custom/test.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="g:\Mis Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i047032\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Desplegables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="lProfesores">Desplegables!$B$3:$B$10</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Profesor</t>
   </si>
   <si>
-    <t>Nomina</t>
-  </si>
-  <si>
     <t>IRPF</t>
   </si>
   <si>
@@ -57,12 +58,75 @@
   </si>
   <si>
     <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Profesores</t>
+  </si>
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Tipos Factura</t>
+  </si>
+  <si>
+    <t>aef35f92-dcec-41b8-102f-563893bb5c3b</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>c60c5be6-b56c-31a9-135b-59ad26d9847f</t>
+  </si>
+  <si>
+    <t>nomina</t>
+  </si>
+  <si>
+    <t>factura proveedor</t>
+  </si>
+  <si>
+    <t>caixa</t>
+  </si>
+  <si>
+    <t>ipar</t>
+  </si>
+  <si>
+    <t>contado</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>mobius</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>dummy2</t>
+  </si>
+  <si>
+    <t>ab9ee1d2-4bce-9baa-c6c9-5a0eae6851dc</t>
+  </si>
+  <si>
+    <t>Clasificacion</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>irpf</t>
+  </si>
+  <si>
+    <t>sueldos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,61 +439,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Desplegables!$B$3:$C$23,2)</f>
+        <v>c60c5be6-b56c-31a9-135b-59ad26d9847f</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Desplegables!$B$3:$C$23,2)</f>
+        <v>c60c5be6-b56c-31a9-135b-59ad26d9847f</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Desplegables!$B$3:$C$23,2)</f>
+        <v>c60c5be6-b56c-31a9-135b-59ad26d9847f</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Desplegables!$B$3:$C$23,2)</f>
+        <v>ab9ee1d2-4bce-9baa-c6c9-5a0eae6851dc</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43056</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43056</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="e">
+        <f>VLOOKUP(A6,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="e">
+        <f>VLOOKUP(A7,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="e">
+        <f>VLOOKUP(A8,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="e">
+        <f>VLOOKUP(A9,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="e">
+        <f>VLOOKUP(A10,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="e">
+        <f>VLOOKUP(A11,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="e">
+        <f>VLOOKUP(A12,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="e">
+        <f>VLOOKUP(A13,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="e">
+        <f>VLOOKUP(A14,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="e">
+        <f>VLOOKUP(A15,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="e">
+        <f>VLOOKUP(A16,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="e">
+        <f>VLOOKUP(A17,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="e">
+        <f>VLOOKUP(A18,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <f>VLOOKUP(A19,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="e">
+        <f>VLOOKUP(A20,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="e">
+        <f>VLOOKUP(A21,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="e">
+        <f>VLOOKUP(A22,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="e">
+        <f>VLOOKUP(A23,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="e">
+        <f>VLOOKUP(A24,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="e">
+        <f>VLOOKUP(A25,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="e">
+        <f>VLOOKUP(A26,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="e">
+        <f>VLOOKUP(A27,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="e">
+        <f>VLOOKUP(A28,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="e">
+        <f>VLOOKUP(A29,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="e">
+        <f>VLOOKUP(A30,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="e">
+        <f>VLOOKUP(A31,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="e">
+        <f>VLOOKUP(A32,Desplegables!$B$3:$C$23,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A33">
+      <formula1>lProfesores</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datos Invalidos">
+          <x14:formula1>
+            <xm:f>Desplegables!$I$3:$I$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datos invalidos">
+          <x14:formula1>
+            <xm:f>Desplegables!$G$3:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Datos Invalidos">
+          <x14:formula1>
+            <xm:f>Desplegables!$K$3:$K$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>650</v>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
